--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_18.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_18.xlsx
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>

--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_18.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_18.xlsx
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
